--- a/CISolutions.xlsx
+++ b/CISolutions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Question1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Info gathered from the problem</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>pq is the variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha/2 </t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -166,16 +169,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,28 +474,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -507,13 +510,13 @@
         <f>AVERAGE(B3:B34)</f>
         <v>30.5625</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.9</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.05</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.95</v>
       </c>
       <c r="I3" s="1">
@@ -521,7 +524,7 @@
         <v>28.831564894714539</v>
       </c>
       <c r="J3" s="1">
-        <f>$D$3+(_xlfn.T.INV(H3,$D$5)*$D$4/SQRT($D$6))</f>
+        <f t="shared" ref="I3:J5" si="0">$D$3+(_xlfn.T.INV(H3,$D$5)*$D$4/SQRT($D$6))</f>
         <v>32.293435105285461</v>
       </c>
     </row>
@@ -536,21 +539,21 @@
         <f>_xlfn.STDEV.S(B3:B34)</f>
         <v>5.775015710074987</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.95</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.97499999999999998</v>
       </c>
       <c r="I4" s="1">
-        <f>$D$3+(_xlfn.T.INV(G4,$D$5)*$D$4/SQRT($D$6))</f>
+        <f t="shared" si="0"/>
         <v>28.48038480410197</v>
       </c>
       <c r="J4" s="1">
-        <f>$D$3+(_xlfn.T.INV(H4,$D$5)*$D$4/SQRT($D$6))</f>
+        <f t="shared" si="0"/>
         <v>32.644615195898034</v>
       </c>
     </row>
@@ -565,21 +568,21 @@
         <f>COUNT(B3:B34)-1</f>
         <v>31</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.99</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.995</v>
       </c>
       <c r="I5" s="1">
-        <f>$D$3+(_xlfn.T.INV(G5,$D$5)*$D$4/SQRT($D$6))</f>
+        <f t="shared" si="0"/>
         <v>27.761140004831173</v>
       </c>
       <c r="J5" s="1">
-        <f>$D$3+(_xlfn.T.INV(H5,$D$5)*$D$4/SQRT($D$6))</f>
+        <f t="shared" si="0"/>
         <v>33.363859995168824</v>
       </c>
     </row>
@@ -745,7 +748,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,28 +760,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -789,21 +792,21 @@
       <c r="C3" s="1">
         <v>43</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.05</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.95</v>
       </c>
       <c r="H3" s="1">
-        <f>$C$3+(_xlfn.T.INV(F3,$C$5)*$C$4/SQRT($C$6))</f>
+        <f t="shared" ref="H3:I5" si="0">$C$3+(_xlfn.T.INV(F3,$C$5)*$C$4/SQRT($C$6))</f>
         <v>42.334726306853447</v>
       </c>
       <c r="I3" s="1">
-        <f>$C$3+(_xlfn.T.INV(G3,$C$5)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="0"/>
         <v>43.665273693146553</v>
       </c>
     </row>
@@ -814,21 +817,21 @@
       <c r="C4" s="1">
         <v>14</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.95</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.97499999999999998</v>
       </c>
       <c r="H4" s="1">
-        <f>$C$3+(_xlfn.T.INV(F4,$C$5)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="0"/>
         <v>42.207089574055125</v>
       </c>
       <c r="I4" s="1">
-        <f>$C$3+(_xlfn.T.INV(G4,$C$5)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="0"/>
         <v>43.792910425944875</v>
       </c>
     </row>
@@ -839,21 +842,21 @@
       <c r="C5" s="1">
         <v>1199</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.99</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.995</v>
       </c>
       <c r="H5" s="1">
-        <f>$C$3+(_xlfn.T.INV(F5,$C$5)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="0"/>
         <v>41.957331280669095</v>
       </c>
       <c r="I5" s="1">
-        <f>$C$3+(_xlfn.T.INV(G5,$C$5)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="0"/>
         <v>44.042668719330905</v>
       </c>
     </row>
@@ -866,79 +869,79 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.9</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.05</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.95</v>
       </c>
       <c r="H8" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(F8,0,1)*$C$4/SQRT($C$6))</f>
+        <f t="shared" ref="H8:I10" si="1">$C$3+(_xlfn.NORM.INV(F8,0,1)*$C$4/SQRT($C$6))</f>
         <v>42.335240320991424</v>
       </c>
       <c r="I8" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(G8,0,1)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="1"/>
         <v>43.664759679008576</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.95</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.97499999999999998</v>
       </c>
       <c r="H9" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(F9,0,1)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="1"/>
         <v>42.207889986146682</v>
       </c>
       <c r="I9" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(G9,0,1)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="1"/>
         <v>43.792110013853318</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>0.99</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.995</v>
       </c>
       <c r="H10" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(F10,0,1)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="1"/>
         <v>41.958990980746663</v>
       </c>
       <c r="I10" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(G10,0,1)*$C$4/SQRT($C$6))</f>
+        <f t="shared" si="1"/>
         <v>44.041009019253337</v>
       </c>
     </row>
@@ -964,28 +967,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -997,21 +1000,21 @@
         <f>42/68</f>
         <v>0.61764705882352944</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>0.9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.05</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.95</v>
       </c>
       <c r="H3" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(F3,0,1)*$C$4/SQRT($C$5))</f>
+        <f t="shared" ref="H3:I5" si="0">$C$3+(_xlfn.NORM.INV(F3,0,1)*$C$4/SQRT($C$5))</f>
         <v>0.52071326582533983</v>
       </c>
       <c r="I3" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(G3,0,1)*$C$4/SQRT($C$5))</f>
+        <f t="shared" si="0"/>
         <v>0.71458085182171904</v>
       </c>
     </row>
@@ -1023,21 +1026,21 @@
         <f>SQRT(C3*(1-C3))</f>
         <v>0.48596210711347959</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0.95</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.97499999999999998</v>
       </c>
       <c r="H4" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(F4,0,1)*$C$4/SQRT($C$5))</f>
+        <f t="shared" si="0"/>
         <v>0.50214332034594289</v>
       </c>
       <c r="I4" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(G4,0,1)*$C$4/SQRT($C$5))</f>
+        <f t="shared" si="0"/>
         <v>0.73315079730111599</v>
       </c>
     </row>
@@ -1048,21 +1051,21 @@
       <c r="C5" s="1">
         <v>68</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.99</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.995</v>
       </c>
       <c r="H5" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(F5,0,1)*$C$4/SQRT($C$5))</f>
+        <f t="shared" si="0"/>
         <v>0.46584941530211821</v>
       </c>
       <c r="I5" s="1">
-        <f>$C$3+(_xlfn.NORM.INV(G5,0,1)*$C$4/SQRT($C$5))</f>
+        <f t="shared" si="0"/>
         <v>0.76944470234494067</v>
       </c>
     </row>
@@ -1091,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,16 +1109,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2000</v>
       </c>
     </row>
@@ -1123,7 +1126,7 @@
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>40000000</v>
       </c>
     </row>
@@ -1131,13 +1134,13 @@
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>0.95</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>0.9</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>0.99</v>
       </c>
     </row>
@@ -1159,7 +1162,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -1173,6 +1176,17 @@
       <c r="E7" s="1">
         <f t="shared" ref="E7" si="1">E6^2 *$C$4/$C$3^2</f>
         <v>66.348966010212109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1187,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,16 +1214,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.02</v>
       </c>
     </row>
@@ -1217,7 +1231,7 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
@@ -1228,7 +1242,7 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.9</v>
       </c>
     </row>
@@ -1236,19 +1250,19 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>0.95</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.9</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <f>_xlfn.NORM.INV(0.975,0,1)</f>
@@ -1264,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
